--- a/html_to_excel.xlsx
+++ b/html_to_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,35 +434,59 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>30</v>
+          <t>Specified Text Search</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Specified Text Search</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bob</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>25</v>
+          <t>Searched all websites commencing with a URL commencing with https://sites.research.unimelb.edu.au/research-funding...</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Searched all websites commencing with a URL commencing with https://sites.research.unimelb.edu.au/research-funding...</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Text Searched</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gabrielle Nagle</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants</t>
+        </is>
       </c>
     </row>
   </sheetData>
